--- a/bom.xlsx
+++ b/bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ionto\Dropbox\123456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3915A9DA-7E18-40F4-A11E-7BB2F4797CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E44DDC-B2AE-4560-9623-8E9D6F565D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5484110C-AD64-4F91-8899-8BE0B8251812}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="164">
   <si>
     <t>Mfr part number</t>
   </si>
@@ -101,9 +101,6 @@
     <t>DSPIC33EP256GP502-I/MM</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>IC MCU 16BIT 256KB FLASH 28QFN</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>RV1, RV2</t>
   </si>
   <si>
-    <t>Trimmer Resistors - SMD 10 KW single turn side adj.</t>
-  </si>
-  <si>
     <t>CRCW060315K0FKEA</t>
   </si>
   <si>
@@ -188,36 +182,21 @@
     <t>C16</t>
   </si>
   <si>
-    <t>Film Capacitors 0.15uF 50V 5%</t>
-  </si>
-  <si>
     <t>ECW-U1332JX5</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>Film Capacitors 100V 3300pF 5%</t>
-  </si>
-  <si>
     <t>ECW-U1152JX5</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>Film Capacitors 0.0015uF 100 volts 5%</t>
-  </si>
-  <si>
-    <t>SJ1-42534-SMT-TR</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
-    <t>Stereo (4 Conductor, TRRS) Jack</t>
-  </si>
-  <si>
     <t>USB4105-GF-A</t>
   </si>
   <si>
@@ -302,9 +281,6 @@
     <t>RES SMD 0 OHM JUMPER 1/16W 0402</t>
   </si>
   <si>
-    <t>R40, R41, R42, R43, R44, R45, R100, R101, R102, R103</t>
-  </si>
-  <si>
     <t>R1, R3, R5</t>
   </si>
   <si>
@@ -314,18 +290,9 @@
     <t>DSPIC33EP512GP502-I/MM</t>
   </si>
   <si>
-    <t>CD0201-T2.0LC</t>
-  </si>
-  <si>
-    <t>TVS DIODE 2VWM 4VC 0201</t>
-  </si>
-  <si>
     <t>C8, C14</t>
   </si>
   <si>
-    <t>U5</t>
-  </si>
-  <si>
     <t>D1, D5</t>
   </si>
   <si>
@@ -374,12 +341,6 @@
     <t>SMH100-LPSE-S20-ST-BK</t>
   </si>
   <si>
-    <t>Board Header F 1</t>
-  </si>
-  <si>
-    <t>Board Header M 1</t>
-  </si>
-  <si>
     <t>R21, R22, R23, R24, R25</t>
   </si>
   <si>
@@ -387,6 +348,186 @@
   </si>
   <si>
     <t>ERJ-1GNF1800C</t>
+  </si>
+  <si>
+    <t>AUDIO JACK, 3.5 MM, RT, 4 CONDUC</t>
+  </si>
+  <si>
+    <t>SJ2-35954B-SMT-TR</t>
+  </si>
+  <si>
+    <t>R26, R27, R40, R41, R42, R43, R44, R45, R100, R101, R102, R103</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>RES 0 OHM JUMPER 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RMCF0603ZT0R00</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>PRTR5V0U2F,115</t>
+  </si>
+  <si>
+    <t>TVS DIODE 5.5VWM 6XSON SOT886</t>
+  </si>
+  <si>
+    <t>R7, R20</t>
+  </si>
+  <si>
+    <t>Film Capacitors 100V 3300pF 5% 1206</t>
+  </si>
+  <si>
+    <t>Film Capacitors 0.15uF 50V 5% 2416</t>
+  </si>
+  <si>
+    <t>Film Capacitors 0.0015uF 100 volts 5% 1206</t>
+  </si>
+  <si>
+    <t>Trimmer Resistors - SMD 10 KW single turn side adj. SMD</t>
+  </si>
+  <si>
+    <t>Cost @ Quantity</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>J3_2</t>
+  </si>
+  <si>
+    <t>U3_2</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>DigiKey Part Number</t>
+  </si>
+  <si>
+    <t>MCP6004-E/ST-ND</t>
+  </si>
+  <si>
+    <t>S9264-ND</t>
+  </si>
+  <si>
+    <t>S9216-ND</t>
+  </si>
+  <si>
+    <t>DSPIC33EP256GP502-I/MM-ND</t>
+  </si>
+  <si>
+    <t>DSPIC33EP512GP502-I/MM-ND</t>
+  </si>
+  <si>
+    <t>478-1655-1-ND</t>
+  </si>
+  <si>
+    <t>541-0.0JCT-ND</t>
+  </si>
+  <si>
+    <t>P5.1KDCCT-ND</t>
+  </si>
+  <si>
+    <t>541-100KHCT-ND</t>
+  </si>
+  <si>
+    <t>1276-1935-1-ND</t>
+  </si>
+  <si>
+    <t>1276-CL05B104KB5NNNCCT-ND</t>
+  </si>
+  <si>
+    <t>1928-SMDTC04100TA00MQ00CT-ND</t>
+  </si>
+  <si>
+    <t>490-8082-1-ND</t>
+  </si>
+  <si>
+    <t>PCF1349CT-ND</t>
+  </si>
+  <si>
+    <t>490-2644-1-ND</t>
+  </si>
+  <si>
+    <t>P122787CT-ND</t>
+  </si>
+  <si>
+    <t>631-FC7BSCCMM7.3728-T1CT-ND</t>
+  </si>
+  <si>
+    <t>1497-1299-1-ND</t>
+  </si>
+  <si>
+    <t>541-15.0KHCT-ND</t>
+  </si>
+  <si>
+    <t>PCF1354CT-ND</t>
+  </si>
+  <si>
+    <t>PCF1350CT-ND</t>
+  </si>
+  <si>
+    <t>541-4034-1-ND</t>
+  </si>
+  <si>
+    <t>CP-SJ2-35954B-SMT-CT-ND</t>
+  </si>
+  <si>
+    <t>1497-XZFBA155W5MAVCT-ND</t>
+  </si>
+  <si>
+    <t>1497-1300-1-ND</t>
+  </si>
+  <si>
+    <t>RMCF0603FT14K7CT-ND</t>
+  </si>
+  <si>
+    <t>PCF1554CT-ND</t>
+  </si>
+  <si>
+    <t>2073-USB4105-GF-ACT-ND</t>
+  </si>
+  <si>
+    <t>SQ2364EES-T1_GE3CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0603FT7K87CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0603FT7K15CT-ND</t>
+  </si>
+  <si>
+    <t>541-3984-1-ND</t>
+  </si>
+  <si>
+    <t>150-MCP2221AT-I/MLCT-ND</t>
+  </si>
+  <si>
+    <t>505-LT1763CDE-3.3#TRPBFCT-ND</t>
+  </si>
+  <si>
+    <t>1497-1296-1-ND</t>
+  </si>
+  <si>
+    <t>1727-4161-1-ND</t>
+  </si>
+  <si>
+    <t>RMCF0603ZT0R00CT-ND</t>
+  </si>
+  <si>
+    <t>399-C0603C103K5RACTUCT-ND</t>
+  </si>
+  <si>
+    <t>311-47.0KHRCT-ND</t>
+  </si>
+  <si>
+    <t>R26, R27, R40-R45, R100-R103</t>
   </si>
 </sst>
 </file>
@@ -773,564 +914,941 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE23F5CF-1305-4658-AF08-A2ACFE7292D4}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="122" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" customWidth="1"/>
-    <col min="4" max="4" width="74.21875" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.21875" customWidth="1"/>
+    <col min="6" max="6" width="55.109375" customWidth="1"/>
+    <col min="7" max="7" width="74.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1">
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="D6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4.72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8.43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>83</v>
       </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5.53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4.59</v>
+      </c>
+      <c r="E32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" t="s">
         <v>21</v>
       </c>
-      <c r="D32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="E36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="E38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s">
         <v>95</v>
       </c>
-      <c r="D34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E40" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="1">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="F40" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="1">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/bom.xlsx
+++ b/bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ionto\Dropbox\123456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E44DDC-B2AE-4560-9623-8E9D6F565D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CD550E-F6CB-4067-997D-86A2890CC2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5484110C-AD64-4F91-8899-8BE0B8251812}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="204">
   <si>
     <t>Mfr part number</t>
   </si>
@@ -528,6 +528,126 @@
   </si>
   <si>
     <t>R26, R27, R40-R45, R100-R103</t>
+  </si>
+  <si>
+    <t>Mouser Part Number</t>
+  </si>
+  <si>
+    <t>581-TAJA106K016R</t>
+  </si>
+  <si>
+    <t>71-CRCW0402-0-E3</t>
+  </si>
+  <si>
+    <t>708-RMCF0603ZT0R00</t>
+  </si>
+  <si>
+    <t>667-ERA-2AEB512X</t>
+  </si>
+  <si>
+    <t>71-CRCW0603-100K-E3</t>
+  </si>
+  <si>
+    <t>187-CL10B104KB8NNWC</t>
+  </si>
+  <si>
+    <t>187-CL05B104KB5NNNC</t>
+  </si>
+  <si>
+    <t>505-PET281/63/20</t>
+  </si>
+  <si>
+    <t>80-C0603C103K5R</t>
+  </si>
+  <si>
+    <t>81-GJM1555C1H180GB01</t>
+  </si>
+  <si>
+    <t>667-ECW-U1122JX5</t>
+  </si>
+  <si>
+    <t>81-PVG3A103C01R00</t>
+  </si>
+  <si>
+    <t>71-CRCW0603-15K-E3</t>
+  </si>
+  <si>
+    <t>667-ECH-U1H154GX9</t>
+  </si>
+  <si>
+    <t>667-ECW-U1332JX5</t>
+  </si>
+  <si>
+    <t>667-ECW-U1152JX5</t>
+  </si>
+  <si>
+    <t>490-SJ2-35954BSMT-TR</t>
+  </si>
+  <si>
+    <t>640-USB4105-GF-A</t>
+  </si>
+  <si>
+    <t>78-SQ2364EES-T1_GE3</t>
+  </si>
+  <si>
+    <t>708-RMCF0603FT7K87</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-0747KL</t>
+  </si>
+  <si>
+    <t>71-CRCW06034K75FKEAC</t>
+  </si>
+  <si>
+    <t>708-RMCF0603FT7K15</t>
+  </si>
+  <si>
+    <t>708-RMCF0603FT14K7</t>
+  </si>
+  <si>
+    <t>71-CRCW0603150KFKEAC</t>
+  </si>
+  <si>
+    <t> 579-MCP6004-E/ST</t>
+  </si>
+  <si>
+    <t>584-1763CDE-3.3TRPBF</t>
+  </si>
+  <si>
+    <t>579-33EP512GP502IMM</t>
+  </si>
+  <si>
+    <t>579-PC33256GP502IMM</t>
+  </si>
+  <si>
+    <t>579-MCP2221AT-I/ML</t>
+  </si>
+  <si>
+    <t>771-PRTR5V0U2F-T/R</t>
+  </si>
+  <si>
+    <t>559-FC7BSCCMM73728T1</t>
+  </si>
+  <si>
+    <t>667-ERJ-1GNF1800C</t>
+  </si>
+  <si>
+    <t>910-HDR100MET40FGVTH</t>
+  </si>
+  <si>
+    <t>910-HDR100MET40MGVTH</t>
+  </si>
+  <si>
+    <t>859-LTST-FC03GD-5A</t>
+  </si>
+  <si>
+    <t>859-LTST-FC03ED-5A</t>
+  </si>
+  <si>
+    <t>859-LTST-FC03BD-5A</t>
+  </si>
+  <si>
+    <t>604-APG0603SYCTT</t>
   </si>
 </sst>
 </file>
@@ -914,940 +1034,1060 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE23F5CF-1305-4658-AF08-A2ACFE7292D4}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" customWidth="1"/>
-    <col min="6" max="6" width="55.109375" customWidth="1"/>
-    <col min="7" max="7" width="74.21875" customWidth="1"/>
+    <col min="2" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" customWidth="1"/>
+    <col min="8" max="8" width="74.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
+      <c r="C1" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="1">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>1.4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
       </c>
       <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="1">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>0.19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>163</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>106</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>0.2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>113</v>
       </c>
       <c r="F4" t="s">
         <v>113</v>
       </c>
       <c r="G4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>77</v>
       </c>
       <c r="B5" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>0.3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
       </c>
       <c r="F5" t="s">
         <v>81</v>
       </c>
       <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>0.4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
       <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>0.24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>76</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
       </c>
       <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>0.16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>84</v>
       </c>
       <c r="F8" t="s">
         <v>84</v>
       </c>
       <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>3.66</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
       </c>
       <c r="F9" t="s">
         <v>33</v>
       </c>
       <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>74</v>
       </c>
       <c r="B10" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
+      <c r="C10" t="s">
+        <v>173</v>
       </c>
       <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
         <v>0.08</v>
-      </c>
-      <c r="E10" t="s">
-        <v>73</v>
       </c>
       <c r="F10" t="s">
         <v>73</v>
       </c>
       <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>0.26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>1.36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
       </c>
       <c r="F12" t="s">
         <v>39</v>
       </c>
       <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>2.46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
       </c>
       <c r="F13" t="s">
         <v>42</v>
       </c>
       <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
+      <c r="C14" t="s">
+        <v>177</v>
       </c>
       <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
         <v>0.1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
       </c>
       <c r="F14" t="s">
         <v>44</v>
       </c>
       <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
         <v>1.57</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F16" t="s">
         <v>47</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G16" t="s">
         <v>47</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
         <v>0.7</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F17" t="s">
         <v>49</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G17" t="s">
         <v>49</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
         <v>0.71</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F18" t="s">
         <v>51</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G18" t="s">
         <v>51</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>105</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
         <v>1.32</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F19" t="s">
         <v>52</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G19" t="s">
         <v>52</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>98</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
         <v>4.72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3.72</v>
-      </c>
-      <c r="E20" t="s">
-        <v>120</v>
       </c>
       <c r="F20" t="s">
         <v>54</v>
       </c>
       <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
         <v>0.78</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F22" t="s">
         <v>119</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G22" t="s">
         <v>119</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>56</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
         <v>0.72</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F23" t="s">
         <v>57</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G23" t="s">
         <v>57</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>59</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
         <v>0.1</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F24" t="s">
         <v>60</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G24" t="s">
         <v>60</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
         <v>0.1</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F25" t="s">
         <v>63</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G25" t="s">
         <v>63</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>65</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
         <v>0.1</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F26" t="s">
         <v>66</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G26" t="s">
         <v>66</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>68</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
         <v>0.1</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F27" t="s">
         <v>69</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G27" t="s">
         <v>69</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
         <v>0.1</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F28" t="s">
         <v>5</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G28" t="s">
         <v>5</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
+      <c r="C29" t="s">
+        <v>190</v>
       </c>
       <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
         <v>0.59</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
       </c>
       <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>71</v>
       </c>
       <c r="B30" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="1">
-        <v>1</v>
+      <c r="C30" t="s">
+        <v>191</v>
       </c>
       <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
         <v>8.43</v>
-      </c>
-      <c r="E30" t="s">
-        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>83</v>
       </c>
       <c r="B31" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="1">
-        <v>1</v>
+      <c r="C31" t="s">
+        <v>192</v>
       </c>
       <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
         <v>5.53</v>
-      </c>
-      <c r="E31" t="s">
-        <v>107</v>
       </c>
       <c r="F31" t="s">
         <v>107</v>
       </c>
       <c r="G31" t="s">
+        <v>107</v>
+      </c>
+      <c r="H31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
       <c r="B32" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
+      <c r="C32" t="s">
+        <v>193</v>
       </c>
       <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
         <v>4.59</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>121</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>107</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
+      <c r="C33" t="s">
+        <v>194</v>
       </c>
       <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
         <v>2.8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>15</v>
       </c>
       <c r="F33" t="s">
         <v>15</v>
       </c>
       <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>111</v>
       </c>
       <c r="B34" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
+      <c r="C34" t="s">
+        <v>195</v>
       </c>
       <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
         <v>0.22</v>
-      </c>
-      <c r="E34" t="s">
-        <v>110</v>
       </c>
       <c r="F34" t="s">
         <v>110</v>
       </c>
       <c r="G34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H34" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="1">
-        <v>1</v>
+      <c r="C35" t="s">
+        <v>196</v>
       </c>
       <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
         <v>1.35</v>
-      </c>
-      <c r="E35" t="s">
-        <v>18</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
       </c>
       <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>90</v>
       </c>
       <c r="B36" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="1">
         <v>2</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
         <v>0.41</v>
-      </c>
-      <c r="E36" t="s">
-        <v>85</v>
       </c>
       <c r="F36" t="s">
         <v>85</v>
       </c>
       <c r="G36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>92</v>
       </c>
       <c r="B37" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
+      <c r="C37" t="s">
+        <v>203</v>
       </c>
       <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
         <v>0.38</v>
-      </c>
-      <c r="E37" t="s">
-        <v>86</v>
       </c>
       <c r="F37" t="s">
         <v>86</v>
       </c>
       <c r="G37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>94</v>
       </c>
       <c r="B38" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
+      <c r="C38" t="s">
+        <v>200</v>
       </c>
       <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
         <v>0.39</v>
-      </c>
-      <c r="E38" t="s">
-        <v>87</v>
       </c>
       <c r="F38" t="s">
         <v>87</v>
       </c>
       <c r="G38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>96</v>
       </c>
       <c r="B39" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
+      <c r="C39" t="s">
+        <v>202</v>
       </c>
       <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
         <v>0.52</v>
-      </c>
-      <c r="E39" t="s">
-        <v>88</v>
       </c>
       <c r="F39" t="s">
         <v>88</v>
       </c>
       <c r="G39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>103</v>
       </c>
       <c r="B40" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="1">
         <v>5</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
         <v>0.5</v>
-      </c>
-      <c r="E40" t="s">
-        <v>101</v>
       </c>
       <c r="F40" t="s">
         <v>101</v>
       </c>
       <c r="G40" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" t="s">
         <v>102</v>
       </c>
     </row>

--- a/bom.xlsx
+++ b/bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ionto\Dropbox\123456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CD550E-F6CB-4067-997D-86A2890CC2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E3A34D-6389-4915-AB35-A7F15793C86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5484110C-AD64-4F91-8899-8BE0B8251812}"/>
   </bookViews>
@@ -305,27 +305,15 @@
     <t>D6</t>
   </si>
   <si>
-    <t>Red 631nm LED Indication - Discrete 2.4V 2-SMD, No Lead</t>
-  </si>
-  <si>
     <t>XZMDR155W</t>
   </si>
   <si>
-    <t>Yellow 589nm LED Indication - Discrete 2.4V 2-SMD, No Lead</t>
-  </si>
-  <si>
     <t>XZMYR155W</t>
   </si>
   <si>
-    <t>Green 571nm LED Indication - Discrete 2.4V 2-SMD, No Lead</t>
-  </si>
-  <si>
     <t>XZVGR155W</t>
   </si>
   <si>
-    <t>Blue 468nm LED Indication - Discrete 2.9V 0201 (0603 Metric)</t>
-  </si>
-  <si>
     <t>XZFBA155W5MAV</t>
   </si>
   <si>
@@ -648,6 +636,18 @@
   </si>
   <si>
     <t>604-APG0603SYCTT</t>
+  </si>
+  <si>
+    <t>Red 631nm LED Indication - Discrete 2.4V 2-SMD, No Lead 0201</t>
+  </si>
+  <si>
+    <t>Yellow 589nm LED Indication - Discrete 2.4V 2-SMD, No Lead 0201</t>
+  </si>
+  <si>
+    <t>Green 571nm LED Indication - Discrete 2.4V 2-SMD, No Lead 0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue 468nm LED Indication - Discrete 2.9V 0201 </t>
   </si>
 </sst>
 </file>
@@ -1036,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE23F5CF-1305-4658-AF08-A2ACFE7292D4}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="113" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -1082,10 +1082,10 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D2" s="1">
         <v>4</v>
@@ -1108,10 +1108,10 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D3" s="1">
         <v>12</v>
@@ -1120,10 +1120,10 @@
         <v>0.19</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H3" t="s">
         <v>80</v>
@@ -1131,13 +1131,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -1146,13 +1146,13 @@
         <v>0.2</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1160,10 +1160,10 @@
         <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -1186,10 +1186,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -1212,10 +1212,10 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -1238,10 +1238,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -1290,10 +1290,10 @@
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1316,10 +1316,10 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1342,10 +1342,10 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -1368,10 +1368,10 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -1386,7 +1386,7 @@
         <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1394,10 +1394,10 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1420,10 +1420,10 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1446,10 +1446,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1464,7 +1464,7 @@
         <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1472,10 +1472,10 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1490,7 +1490,7 @@
         <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1498,10 +1498,10 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1516,18 +1516,18 @@
         <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -1542,18 +1542,18 @@
         <v>52</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1568,18 +1568,18 @@
         <v>54</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1588,13 +1588,13 @@
         <v>3.72</v>
       </c>
       <c r="F21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G21" t="s">
         <v>54</v>
       </c>
       <c r="H21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1602,10 +1602,10 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1614,10 +1614,10 @@
         <v>0.78</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
         <v>55</v>
@@ -1628,10 +1628,10 @@
         <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -1654,10 +1654,10 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -1680,10 +1680,10 @@
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -1706,10 +1706,10 @@
         <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -1732,10 +1732,10 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1758,10 +1758,10 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -1784,10 +1784,10 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -1810,10 +1810,10 @@
         <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1836,10 +1836,10 @@
         <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -1848,10 +1848,10 @@
         <v>5.53</v>
       </c>
       <c r="F31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H31" t="s">
         <v>82</v>
@@ -1862,10 +1862,10 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -1874,10 +1874,10 @@
         <v>4.59</v>
       </c>
       <c r="F32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H32" t="s">
         <v>21</v>
@@ -1888,10 +1888,10 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -1911,13 +1911,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -1926,13 +1926,13 @@
         <v>0.22</v>
       </c>
       <c r="F34" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G34" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H34" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1940,10 +1940,10 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -1963,13 +1963,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
@@ -1984,18 +1984,18 @@
         <v>85</v>
       </c>
       <c r="H36" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -2010,18 +2010,18 @@
         <v>86</v>
       </c>
       <c r="H37" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -2036,18 +2036,18 @@
         <v>87</v>
       </c>
       <c r="H38" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -2062,18 +2062,18 @@
         <v>88</v>
       </c>
       <c r="H39" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D40" s="1">
         <v>5</v>
@@ -2082,13 +2082,13 @@
         <v>0.5</v>
       </c>
       <c r="F40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/bom.xlsx
+++ b/bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ionto\Dropbox\123456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E3A34D-6389-4915-AB35-A7F15793C86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99227231-FA4B-4D71-AFB5-2B78B4357B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5484110C-AD64-4F91-8899-8BE0B8251812}"/>
   </bookViews>
@@ -35,8 +35,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ion Todirel</author>
+  </authors>
+  <commentList>
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{F0C6F0ED-4CC8-49FC-953A-BC098F9E8E6B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ion Todirel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+requires board revision</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I31" authorId="0" shapeId="0" xr:uid="{4CF7B16C-51CA-4212-88B4-E6DF5068312F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ion Todirel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+requires board revision</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="217">
   <si>
     <t>Mfr part number</t>
   </si>
@@ -648,13 +706,52 @@
   </si>
   <si>
     <t xml:space="preserve">Blue 468nm LED Indication - Discrete 2.9V 0201 </t>
+  </si>
+  <si>
+    <t>Alternate Mfr part number</t>
+  </si>
+  <si>
+    <t>BC065-20-A-L-D</t>
+  </si>
+  <si>
+    <t>BC020-20-A-0200-0300-L-G</t>
+  </si>
+  <si>
+    <t>GRM31C5C1H154JE02L</t>
+  </si>
+  <si>
+    <t>C3216C0G2J122J085AA</t>
+  </si>
+  <si>
+    <t>Alternate Cost @ Quantity</t>
+  </si>
+  <si>
+    <t>TPS73533DRBR, MAX38902D</t>
+  </si>
+  <si>
+    <t>1.93, 2.37</t>
+  </si>
+  <si>
+    <t>865250442003</t>
+  </si>
+  <si>
+    <t>CAP ALUM 10UF 20% 25V SMD</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>732-8312-1-ND </t>
+  </si>
+  <si>
+    <t>710-865250442003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +766,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -691,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -700,6 +810,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1033,11 +1150,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE23F5CF-1305-4658-AF08-A2ACFE7292D4}">
-  <dimension ref="A1:H40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE23F5CF-1305-4658-AF08-A2ACFE7292D4}">
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="113" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="113" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,9 +1166,11 @@
     <col min="6" max="6" width="28.21875" customWidth="1"/>
     <col min="7" max="7" width="55.109375" customWidth="1"/>
     <col min="8" max="8" width="74.21875" customWidth="1"/>
+    <col min="9" max="9" width="31.44140625" customWidth="1"/>
+    <col min="10" max="10" width="38.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1076,8 +1195,14 @@
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1103,7 +1228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1129,7 +1254,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -1155,7 +1280,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -1181,7 +1306,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1207,7 +1332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1233,7 +1358,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1259,7 +1384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1285,145 +1410,151 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>74</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>157</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
         <v>0.08</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>73</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>73</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>132</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>170</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" t="s">
-        <v>171</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>1.36</v>
+        <v>0.26</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
       <c r="E13" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
         <v>2.46</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>42</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>42</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>138</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>173</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" t="s">
-        <v>185</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1432,258 +1563,276 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F16" t="s">
         <v>8</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>8</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>146</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>174</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
         <v>1.57</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>47</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="I17" t="s">
+        <v>207</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>139</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
         <v>0.7</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>49</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>49</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>140</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
         <v>0.71</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>51</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>51</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>101</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>142</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
         <v>1.32</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>52</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>52</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>94</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>121</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
         <v>4.72</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>54</v>
-      </c>
-      <c r="G20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3.72</v>
-      </c>
-      <c r="F21" t="s">
-        <v>116</v>
       </c>
       <c r="G21" t="s">
         <v>54</v>
       </c>
       <c r="H21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="I22" t="s">
+        <v>206</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>53</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>147</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>178</v>
       </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
         <v>0.78</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>115</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>115</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>148</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
         <v>0.72</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>57</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>57</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>59</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>149</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>180</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" t="s">
-        <v>181</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -1692,24 +1841,24 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -1718,24 +1867,24 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1744,24 +1893,24 @@
         <v>0.1</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -1770,328 +1919,364 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F29" t="s">
         <v>5</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>5</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>120</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>186</v>
       </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
         <v>0.59</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>11</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>71</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>153</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
         <v>8.43</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>13</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>13</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H31" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="I31" t="s">
+        <v>210</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>83</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>124</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>188</v>
       </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
         <v>5.53</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>103</v>
-      </c>
-      <c r="G31" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>4.59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>117</v>
       </c>
       <c r="G32" t="s">
         <v>103</v>
       </c>
       <c r="H32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4.59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>14</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>152</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
         <v>2.8</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>15</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>15</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>107</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>155</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
         <v>0.22</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>106</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" t="s">
         <v>106</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H35" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>17</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>136</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>192</v>
       </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
         <v>1.35</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>18</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>18</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="37" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>89</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>154</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>197</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D37" s="1">
         <v>2</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E37" s="1">
         <v>0.41</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>85</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>85</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H37" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="38" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>90</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>137</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>199</v>
       </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
         <v>0.38</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>86</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>86</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H38" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="39" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>91</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>144</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
         <v>0.39</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>87</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>87</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H39" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="40" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>92</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>143</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>198</v>
       </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
         <v>0.52</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>88</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" t="s">
         <v>88</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="41" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>99</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>135</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>193</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D41" s="1">
         <v>5</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E41" s="1">
         <v>0.5</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F41" t="s">
         <v>97</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G41" t="s">
         <v>97</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H41" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A10" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/bom.xlsx
+++ b/bom.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ionto\Dropbox\123456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99227231-FA4B-4D71-AFB5-2B78B4357B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5E8A38-1665-40EB-96BD-96475987DF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5484110C-AD64-4F91-8899-8BE0B8251812}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{5484110C-AD64-4F91-8899-8BE0B8251812}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="main v1" sheetId="1" r:id="rId1"/>
+    <sheet name="main v1.2" sheetId="3" r:id="rId2"/>
+    <sheet name="sub v1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,8 +96,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ion Todirel</author>
+  </authors>
+  <commentList>
+    <comment ref="I33" authorId="0" shapeId="0" xr:uid="{2AEB9C92-FDB2-4241-A5AA-C61AD106569A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ion Todirel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+requires board revision</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="261">
   <si>
     <t>Mfr part number</t>
   </si>
@@ -745,6 +782,138 @@
   </si>
   <si>
     <t>710-865250442003</t>
+  </si>
+  <si>
+    <t>ADP2504ACPZ-5.0-R7</t>
+  </si>
+  <si>
+    <t>IC REG BUCK BOOST 5V 1A 10LFCSP</t>
+  </si>
+  <si>
+    <t>BQ24075TRGTR</t>
+  </si>
+  <si>
+    <t>IC BATT CHG LI-ION 1CELL 16QFN</t>
+  </si>
+  <si>
+    <t>LQM2HPN1R5MG0L</t>
+  </si>
+  <si>
+    <t>FIXED IND 1.5UH 1.5A 88 MOHM SMD</t>
+  </si>
+  <si>
+    <t>SAM-M8Q-0</t>
+  </si>
+  <si>
+    <t>RF RX GALILEO 1.575GHZ/1.602GHZ</t>
+  </si>
+  <si>
+    <t>ESP32 WROOM 32E WIFI/BL/BLE SMD</t>
+  </si>
+  <si>
+    <t>1568-17830-ND</t>
+  </si>
+  <si>
+    <t>672-1054-1-ND</t>
+  </si>
+  <si>
+    <t>490-5113-1-ND </t>
+  </si>
+  <si>
+    <t>296-25609-1-ND</t>
+  </si>
+  <si>
+    <t>IC PWR SWITCH P-CHAN 1:1 4WCSPD</t>
+  </si>
+  <si>
+    <t>GCM1885C2A122JA16D</t>
+  </si>
+  <si>
+    <t>CAP CER 1200PF 100V C0G/NP0 0603</t>
+  </si>
+  <si>
+    <t>ML414H IV01E</t>
+  </si>
+  <si>
+    <t>BATT LITHIUM 3V 1MAH COIN</t>
+  </si>
+  <si>
+    <t>728-1052-1-ND</t>
+  </si>
+  <si>
+    <t>GRM1885C1H152JA01D</t>
+  </si>
+  <si>
+    <t>CAP CER 1500PF 50V C0G/NP0 0603</t>
+  </si>
+  <si>
+    <t>GCM1885C1H332FA16D</t>
+  </si>
+  <si>
+    <t>CAP CER 3300PF 50V C0G/NP0 0603</t>
+  </si>
+  <si>
+    <t>CAP TANT 10UF 10% 16V 1206</t>
+  </si>
+  <si>
+    <t>FFC2B28-24-G</t>
+  </si>
+  <si>
+    <t>CONN FFC FPC 24POS 0.5MM R/A</t>
+  </si>
+  <si>
+    <t>05-24-A-0030-A-4-06-4-T</t>
+  </si>
+  <si>
+    <t>CABLE FFC/FPC 24POS 0.5MM 1.18"</t>
+  </si>
+  <si>
+    <t>FFC2B28-12-G</t>
+  </si>
+  <si>
+    <t>CONN FFC FPC 12POS 0.5MM R/A</t>
+  </si>
+  <si>
+    <t>05-12-A-0050-A-4-06-4-T</t>
+  </si>
+  <si>
+    <t>CABLE FFC/FPC 12POS 0.5MM 1.97"</t>
+  </si>
+  <si>
+    <t>CAP CER 0.15UF 50V C0G/NP0 1206</t>
+  </si>
+  <si>
+    <t>490-GRM31C5C1H154JE02LCT-ND</t>
+  </si>
+  <si>
+    <t>81-GRM31C5C1H154JE2L</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>J3 cable</t>
+  </si>
+  <si>
+    <t>J4 cable</t>
+  </si>
+  <si>
+    <t>490-GCM1885C2A122JA16DCT-ND</t>
+  </si>
+  <si>
+    <t>TCK106AG,LF</t>
+  </si>
+  <si>
+    <t>TCK106AGLFCT-ND</t>
+  </si>
+  <si>
+    <t>BQ27427YZFR</t>
+  </si>
+  <si>
+    <t>SINGLE-CELL BATTERY FUEL GAUGE W</t>
+  </si>
+  <si>
+    <t>296-BQ27427YZFRCT-ND</t>
   </si>
 </sst>
 </file>
@@ -801,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,6 +986,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1151,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE23F5CF-1305-4658-AF08-A2ACFE7292D4}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="113" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A5" zoomScale="113" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2038,7 +2210,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2235,9 @@
       <c r="H33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -2089,8 +2262,9 @@
       <c r="H34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -2115,8 +2289,9 @@
       <c r="H35" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2141,8 +2316,9 @@
       <c r="H36" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>89</v>
       </c>
@@ -2167,8 +2343,9 @@
       <c r="H37" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -2193,8 +2370,9 @@
       <c r="H38" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -2219,8 +2397,9 @@
       <c r="H39" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -2245,8 +2424,9 @@
       <c r="H40" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>99</v>
       </c>
@@ -2271,6 +2451,10 @@
       <c r="H41" t="s">
         <v>98</v>
       </c>
+      <c r="J41"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2279,4 +2463,1495 @@
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAED7600-D05F-4D32-A0BD-18D1AE197906}">
+  <dimension ref="A1:J49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="113" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" customWidth="1"/>
+    <col min="8" max="8" width="74.21875" customWidth="1"/>
+    <col min="9" max="9" width="31.44140625" customWidth="1"/>
+    <col min="10" max="10" width="38.109375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F22" t="s">
+        <v>253</v>
+      </c>
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>247</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="F24" t="s">
+        <v>254</v>
+      </c>
+      <c r="G24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>252</v>
+      </c>
+      <c r="G25" t="s">
+        <v>252</v>
+      </c>
+      <c r="H25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8.43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" t="s">
+        <v>210</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5.53</v>
+      </c>
+      <c r="F34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="5">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H36" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" t="s">
+        <v>200</v>
+      </c>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" t="s">
+        <v>201</v>
+      </c>
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="F40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" t="s">
+        <v>202</v>
+      </c>
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="F41" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" t="s">
+        <v>203</v>
+      </c>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" t="s">
+        <v>98</v>
+      </c>
+      <c r="J42"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE5FDB2-9326-4550-ABE5-7A993015C983}">
+  <dimension ref="A1:J47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>17830</v>
+      </c>
+      <c r="B6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="H6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="H8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>259</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="J47" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bom.xlsx
+++ b/bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ionto\Dropbox\123456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5E8A38-1665-40EB-96BD-96475987DF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C55156F-0CB5-47ED-9C00-DF40BDB0006D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{5484110C-AD64-4F91-8899-8BE0B8251812}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{5484110C-AD64-4F91-8899-8BE0B8251812}"/>
   </bookViews>
   <sheets>
     <sheet name="main v1" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
     <author>Ion Todirel</author>
   </authors>
   <commentList>
-    <comment ref="I33" authorId="0" shapeId="0" xr:uid="{2AEB9C92-FDB2-4241-A5AA-C61AD106569A}">
+    <comment ref="I34" authorId="0" shapeId="0" xr:uid="{2AEB9C92-FDB2-4241-A5AA-C61AD106569A}">
       <text>
         <r>
           <rPr>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="285">
   <si>
     <t>Mfr part number</t>
   </si>
@@ -914,6 +914,78 @@
   </si>
   <si>
     <t>296-BQ27427YZFRCT-ND</t>
+  </si>
+  <si>
+    <t>TLV70033DSER</t>
+  </si>
+  <si>
+    <t>296-37703-1-ND</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 3.3V 200MA 6-WSON</t>
+  </si>
+  <si>
+    <t>ADPL42005ACPZ-3.3-R7</t>
+  </si>
+  <si>
+    <t>IC REG LDO 3.3V 0.5A 8LFCSP</t>
+  </si>
+  <si>
+    <t>505-ADPL42005ACPZ-3.3-R7CT-ND</t>
+  </si>
+  <si>
+    <t>C2, C3</t>
+  </si>
+  <si>
+    <t>C11, C15</t>
+  </si>
+  <si>
+    <t>CL21B105KBFNNNE</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 50V X7R 0805</t>
+  </si>
+  <si>
+    <t>1276-1029-1-ND</t>
+  </si>
+  <si>
+    <t>490-GCM1885C1H332FA16DCT-ND</t>
+  </si>
+  <si>
+    <t>490-1455-1-ND</t>
+  </si>
+  <si>
+    <t>2073-FFC2B28-24-GCT-ND</t>
+  </si>
+  <si>
+    <t>2073-FFC2B28-12-GCT-ND</t>
+  </si>
+  <si>
+    <t>2073-05-24-A-0030-A-4-06-4-T-ND</t>
+  </si>
+  <si>
+    <t>2073-05-12-A-0050-A-4-06-4-T-ND</t>
+  </si>
+  <si>
+    <t>640-FFC2B28-24-G</t>
+  </si>
+  <si>
+    <t>640-FFC2B28-12-G</t>
+  </si>
+  <si>
+    <t>640-524A0030A4064T</t>
+  </si>
+  <si>
+    <t>640-512A0050A4064T</t>
+  </si>
+  <si>
+    <t>187-CL21B105KBFNNNG</t>
+  </si>
+  <si>
+    <t>81-GCM1885C2A122JA6D</t>
+  </si>
+  <si>
+    <t>584-ADPL42005ACPZ33R</t>
   </si>
 </sst>
 </file>
@@ -2467,10 +2539,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAED7600-D05F-4D32-A0BD-18D1AE197906}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="113" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E42"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="113" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2535,10 +2607,10 @@
         <v>1.4</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>268</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>268</v>
       </c>
       <c r="H2" t="s">
         <v>240</v>
@@ -2546,348 +2618,351 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>271</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="D3" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>267</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>267</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="E9" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
         <v>3.66</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
         <v>0.31</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>214</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>214</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="F11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>170</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>232</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>283</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>2.46</v>
+        <v>0.2</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>0.1</v>
+        <v>2.46</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -2896,274 +2971,310 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>250</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>0.46</v>
+        <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>249</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>238</v>
+        <v>207</v>
+      </c>
+      <c r="B18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" t="s">
+        <v>251</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0.17</v>
+        <v>0.46</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="B19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" t="s">
+        <v>238</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>273</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>1.32</v>
+        <v>0.1</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>241</v>
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>0.59</v>
+        <v>1.32</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s">
-        <v>242</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>243</v>
+        <v>241</v>
+      </c>
+      <c r="B22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" t="s">
+        <v>278</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>1.1200000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="F22" t="s">
-        <v>253</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
         <v>54</v>
       </c>
       <c r="H22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>245</v>
+        <v>243</v>
+      </c>
+      <c r="B23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" t="s">
+        <v>280</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>0.39</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F23" t="s">
-        <v>115</v>
+        <v>253</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>247</v>
+        <v>245</v>
+      </c>
+      <c r="B24" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" t="s">
+        <v>279</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>1.04</v>
+        <v>0.39</v>
       </c>
       <c r="F24" t="s">
-        <v>254</v>
+        <v>115</v>
       </c>
       <c r="G24" t="s">
         <v>115</v>
       </c>
       <c r="H24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>277</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>281</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>0.78</v>
+        <v>1.04</v>
       </c>
       <c r="F25" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G25" t="s">
-        <v>252</v>
+        <v>115</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>0.1</v>
+        <v>0.72</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -3172,24 +3283,24 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -3198,24 +3309,24 @@
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -3224,24 +3335,24 @@
         <v>0.1</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -3250,323 +3361,349 @@
         <v>0.1</v>
       </c>
       <c r="F31" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G31" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="H31" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>0.59</v>
+        <v>0.1</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>8.43</v>
+        <v>0.59</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>72</v>
-      </c>
-      <c r="I33" t="s">
-        <v>210</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>211</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>266</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>284</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>5.53</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="I34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="5">
-        <v>4.59</v>
+        <v>210</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>2.8</v>
+        <v>5.53</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="H35" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35"/>
+        <v>82</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="5">
+        <v>4.59</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>0.22</v>
+        <v>2.8</v>
       </c>
       <c r="F36" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="J36"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>1.35</v>
+        <v>0.22</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="J37"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>0.41</v>
+        <v>1.35</v>
       </c>
       <c r="F38" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="J38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="1">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="F40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J40"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="F41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J41"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="F42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" t="s">
+        <v>203</v>
+      </c>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>99</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>135</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>193</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D43" s="1">
         <v>5</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E43" s="1">
         <v>0.5</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F43" t="s">
         <v>97</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" t="s">
         <v>97</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H43" t="s">
         <v>98</v>
       </c>
-      <c r="J42"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
+      <c r="J43"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3578,8 +3715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE5FDB2-9326-4550-ABE5-7A993015C983}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3726,10 +3863,10 @@
         <v>257</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H7" t="s">
         <v>230</v>
@@ -3773,10 +3910,22 @@
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" t="s">
+        <v>262</v>
+      </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>263</v>
+      </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
